--- a/database/industries/siman/sekhouz/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88165F98-AA67-403D-8BBC-A8439C1A806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,13 +61,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سیمان</t>
   </si>
   <si>
     <t>سیمان تیپ 2-پاکتی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سیمان تیپ 5-پاکتی</t>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -435,6 +436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,17 +656,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -675,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -687,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -709,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -731,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -741,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -753,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -764,8 +799,8 @@
       <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -777,22 +812,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>630921</v>
-      </c>
-      <c r="F12" s="13">
         <v>1040358</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>-1040358</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -801,31 +836,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G13" s="11">
+        <v>13509</v>
       </c>
       <c r="H13" s="11">
-        <v>13509</v>
+        <v>13876</v>
       </c>
       <c r="I13" s="11">
-        <v>13876</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -834,22 +869,22 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="13">
+        <v>158935</v>
       </c>
       <c r="H14" s="13">
-        <v>158935</v>
+        <v>159449</v>
       </c>
       <c r="I14" s="13">
-        <v>159449</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>200868</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -858,22 +893,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="11">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11">
         <v>1388336</v>
       </c>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -882,22 +917,22 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G16" s="13">
+        <v>130775</v>
       </c>
       <c r="H16" s="13">
-        <v>130775</v>
+        <v>118080</v>
       </c>
       <c r="I16" s="13">
-        <v>118080</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125586</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -906,44 +941,44 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="11">
+        <v>37355</v>
       </c>
       <c r="H17" s="11">
-        <v>37355</v>
+        <v>44487</v>
       </c>
       <c r="I17" s="11">
-        <v>44487</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65971</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>630921</v>
+        <v>1040358</v>
       </c>
       <c r="F18" s="15">
-        <v>1040358</v>
+        <v>1388336</v>
       </c>
       <c r="G18" s="15">
-        <v>347978</v>
+        <v>340574</v>
       </c>
       <c r="H18" s="15">
-        <v>340574</v>
+        <v>335892</v>
       </c>
       <c r="I18" s="15">
-        <v>335892</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>425521</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
@@ -955,7 +990,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
@@ -964,46 +999,46 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
-        <v>84441</v>
-      </c>
-      <c r="F20" s="11">
         <v>243874</v>
       </c>
+      <c r="F20" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G20" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>88700</v>
-      </c>
-      <c r="F21" s="13">
         <v>145000</v>
       </c>
+      <c r="F21" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G21" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
@@ -1012,22 +1047,22 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="11">
+        <v>13</v>
+      </c>
+      <c r="F22" s="11">
         <v>1052242</v>
       </c>
+      <c r="G22" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
@@ -1036,22 +1071,22 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="13">
+        <v>70500</v>
       </c>
       <c r="H23" s="13">
-        <v>70500</v>
+        <v>25000</v>
       </c>
       <c r="I23" s="13">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>107500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -1060,22 +1095,22 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G24" s="11">
+        <v>17000</v>
       </c>
       <c r="H24" s="11">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="I24" s="11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
@@ -1084,13 +1119,13 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -1099,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
@@ -1108,44 +1143,44 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G26" s="11">
+        <v>149626</v>
       </c>
       <c r="H26" s="11">
-        <v>149626</v>
+        <v>183063</v>
       </c>
       <c r="I26" s="11">
-        <v>183063</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150887</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>173141</v>
+        <v>388874</v>
       </c>
       <c r="F27" s="15">
-        <v>388874</v>
+        <v>1052242</v>
       </c>
       <c r="G27" s="15">
-        <v>1052242</v>
+        <v>237126</v>
       </c>
       <c r="H27" s="15">
-        <v>237126</v>
+        <v>218063</v>
       </c>
       <c r="I27" s="15">
-        <v>218063</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>319887</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1192,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
@@ -1179,29 +1214,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
@@ -1210,8 +1245,8 @@
       <c r="E31" s="19">
         <v>0</v>
       </c>
-      <c r="F31" s="19">
-        <v>0</v>
+      <c r="F31" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="G31" s="19">
         <v>0</v>
@@ -1223,29 +1258,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>804062</v>
+        <v>1429232</v>
       </c>
       <c r="F32" s="15">
-        <v>1429232</v>
+        <v>2440578</v>
       </c>
       <c r="G32" s="15">
-        <v>1400220</v>
+        <v>577700</v>
       </c>
       <c r="H32" s="15">
-        <v>577700</v>
+        <v>553955</v>
       </c>
       <c r="I32" s="15">
-        <v>553955</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>745408</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1255,7 +1290,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1265,7 +1300,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1275,7 +1310,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1307,7 +1342,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1354,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1330,8 +1365,8 @@
       <c r="E39" s="11">
         <v>0</v>
       </c>
-      <c r="F39" s="11">
-        <v>0</v>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
@@ -1343,22 +1378,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>2496627</v>
-      </c>
-      <c r="F40" s="13">
         <v>4292629</v>
       </c>
+      <c r="F40" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="13">
-        <v>-4292629</v>
+        <v>0</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
@@ -1367,31 +1402,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G41" s="11">
+        <v>79095</v>
       </c>
       <c r="H41" s="11">
-        <v>79095</v>
+        <v>95529</v>
       </c>
       <c r="I41" s="11">
-        <v>95529</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215764</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
@@ -1400,22 +1435,22 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G42" s="13">
+        <v>1019242</v>
       </c>
       <c r="H42" s="13">
-        <v>1019242</v>
+        <v>1138782</v>
       </c>
       <c r="I42" s="13">
-        <v>1138782</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1491323</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>17</v>
       </c>
@@ -1424,22 +1459,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="11">
+        <v>13</v>
+      </c>
+      <c r="F43" s="11">
         <v>5955837</v>
       </c>
+      <c r="G43" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
@@ -1448,22 +1483,22 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G44" s="13">
+        <v>615148</v>
       </c>
       <c r="H44" s="13">
-        <v>615148</v>
+        <v>847814</v>
       </c>
       <c r="I44" s="13">
-        <v>847814</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>900514</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>19</v>
       </c>
@@ -1472,44 +1507,44 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G45" s="11">
+        <v>177419</v>
       </c>
       <c r="H45" s="11">
-        <v>177419</v>
+        <v>281222</v>
       </c>
       <c r="I45" s="11">
-        <v>281222</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>439828</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>2496627</v>
+        <v>4292629</v>
       </c>
       <c r="F46" s="15">
-        <v>4292629</v>
+        <v>5955837</v>
       </c>
       <c r="G46" s="15">
-        <v>1663208</v>
+        <v>1890904</v>
       </c>
       <c r="H46" s="15">
-        <v>1890904</v>
+        <v>2363347</v>
       </c>
       <c r="I46" s="15">
-        <v>2363347</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3047429</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>33</v>
       </c>
@@ -1521,7 +1556,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1530,46 +1565,46 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>563662</v>
-      </c>
-      <c r="F48" s="11">
         <v>1600575</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>646925</v>
-      </c>
-      <c r="F49" s="13">
         <v>1134485</v>
       </c>
+      <c r="F49" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G49" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>17</v>
       </c>
@@ -1578,22 +1613,22 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="11">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11">
         <v>6868280</v>
       </c>
+      <c r="G50" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
@@ -1602,22 +1637,22 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G51" s="13">
+        <v>512296</v>
       </c>
       <c r="H51" s="13">
-        <v>512296</v>
+        <v>214461</v>
       </c>
       <c r="I51" s="13">
-        <v>214461</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1029063</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>19</v>
       </c>
@@ -1626,22 +1661,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G52" s="11">
+        <v>134143</v>
       </c>
       <c r="H52" s="11">
-        <v>134143</v>
+        <v>91146</v>
       </c>
       <c r="I52" s="11">
-        <v>91146</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>630655</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
@@ -1650,13 +1685,13 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
@@ -1665,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>23</v>
       </c>
@@ -1674,44 +1709,44 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1007310</v>
       </c>
       <c r="H54" s="11">
-        <v>1007310</v>
+        <v>1570516</v>
       </c>
       <c r="I54" s="11">
-        <v>1570516</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1357937</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>1210587</v>
+        <v>2735060</v>
       </c>
       <c r="F55" s="15">
-        <v>2735060</v>
+        <v>6868280</v>
       </c>
       <c r="G55" s="15">
-        <v>6868280</v>
+        <v>1653749</v>
       </c>
       <c r="H55" s="15">
-        <v>1653749</v>
+        <v>1876123</v>
       </c>
       <c r="I55" s="15">
-        <v>1876123</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3017655</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>34</v>
       </c>
@@ -1723,7 +1758,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>26</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>27</v>
       </c>
@@ -1754,22 +1789,22 @@
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>28</v>
       </c>
@@ -1780,8 +1815,8 @@
       <c r="E59" s="19">
         <v>0</v>
       </c>
-      <c r="F59" s="19">
-        <v>0</v>
+      <c r="F59" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="G59" s="19">
         <v>0</v>
@@ -1793,29 +1828,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
-        <v>3707214</v>
+        <v>7027689</v>
       </c>
       <c r="F60" s="15">
-        <v>7027689</v>
+        <v>12824117</v>
       </c>
       <c r="G60" s="15">
-        <v>8531488</v>
+        <v>3544653</v>
       </c>
       <c r="H60" s="15">
-        <v>3544653</v>
+        <v>4239470</v>
       </c>
       <c r="I60" s="15">
-        <v>4239470</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6065084</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1825,7 +1860,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1835,7 +1870,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1845,7 +1880,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>35</v>
       </c>
@@ -1867,7 +1902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1877,7 +1912,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>36</v>
       </c>
@@ -1889,7 +1924,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
@@ -1898,70 +1933,70 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>3957115</v>
+        <v>4126108</v>
       </c>
       <c r="F68" s="13">
         <v>4126108</v>
       </c>
-      <c r="G68" s="13">
-        <v>4126108</v>
+      <c r="G68" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G69" s="11">
+        <v>5854986</v>
       </c>
       <c r="H69" s="11">
-        <v>5854986</v>
+        <v>6884477</v>
       </c>
       <c r="I69" s="11">
-        <v>6884477</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6519338</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>16</v>
       </c>
@@ -1970,22 +2005,22 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G70" s="13">
+        <v>6412949</v>
       </c>
       <c r="H70" s="13">
-        <v>6412949</v>
+        <v>7141983</v>
       </c>
       <c r="I70" s="13">
-        <v>7141983</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7424393</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>17</v>
       </c>
@@ -1994,22 +2029,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="11">
+        <v>13</v>
+      </c>
+      <c r="F71" s="11">
         <v>4289910</v>
       </c>
+      <c r="G71" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>18</v>
       </c>
@@ -2018,22 +2053,22 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G72" s="13">
+        <v>4703865</v>
       </c>
       <c r="H72" s="13">
-        <v>4703865</v>
+        <v>7179997</v>
       </c>
       <c r="I72" s="13">
-        <v>7179997</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7170497</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>19</v>
       </c>
@@ -2042,22 +2077,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G73" s="11">
+        <v>4749538</v>
       </c>
       <c r="H73" s="11">
-        <v>4749538</v>
+        <v>6321442</v>
       </c>
       <c r="I73" s="11">
-        <v>6321442</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6666990</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>38</v>
       </c>
@@ -2069,7 +2104,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>11</v>
       </c>
@@ -2078,46 +2113,46 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>6675217</v>
-      </c>
-      <c r="F75" s="11">
         <v>5922224</v>
       </c>
+      <c r="F75" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>7293405</v>
-      </c>
-      <c r="F76" s="13">
         <v>7433840</v>
       </c>
+      <c r="F76" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G76" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>17</v>
       </c>
@@ -2126,22 +2161,22 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="11">
+        <v>13</v>
+      </c>
+      <c r="F77" s="11">
         <v>6527282</v>
       </c>
+      <c r="G77" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>18</v>
       </c>
@@ -2150,22 +2185,22 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G78" s="13">
+        <v>7266610</v>
       </c>
       <c r="H78" s="13">
-        <v>7266610</v>
+        <v>8578440</v>
       </c>
       <c r="I78" s="13">
-        <v>8578440</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9572679</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>19</v>
       </c>
@@ -2174,22 +2209,22 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G79" s="11">
+        <v>7890765</v>
       </c>
       <c r="H79" s="11">
-        <v>7890765</v>
+        <v>9114600</v>
       </c>
       <c r="I79" s="11">
-        <v>9114600</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10254553</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>22</v>
       </c>
@@ -2198,22 +2233,22 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>23</v>
       </c>
@@ -2222,22 +2257,22 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G81" s="11">
+        <v>6732186</v>
       </c>
       <c r="H81" s="11">
-        <v>6732186</v>
+        <v>8579101</v>
       </c>
       <c r="I81" s="11">
-        <v>8579101</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8999695</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2247,7 +2282,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2257,7 +2292,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2267,7 +2302,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2299,7 +2334,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>40</v>
       </c>
@@ -2311,7 +2346,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>11</v>
       </c>
@@ -2335,55 +2370,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-789128</v>
+        <v>-553351</v>
       </c>
       <c r="F89" s="13">
-        <v>-553351</v>
+        <v>1874250</v>
       </c>
       <c r="G89" s="13">
-        <v>1874250</v>
+        <v>0</v>
       </c>
       <c r="H89" s="13">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="I89" s="13">
-        <v>-2244349</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4680856</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G90" s="11">
+        <v>-42333</v>
       </c>
       <c r="H90" s="11">
-        <v>-42333</v>
+        <v>42333</v>
       </c>
       <c r="I90" s="11">
-        <v>42333</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>16</v>
       </c>
@@ -2392,22 +2427,22 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G91" s="13">
+        <v>-514156</v>
       </c>
       <c r="H91" s="13">
-        <v>-514156</v>
+        <v>514156</v>
       </c>
       <c r="I91" s="13">
-        <v>514156</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>17</v>
       </c>
@@ -2416,22 +2451,22 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="11">
+        <v>13</v>
+      </c>
+      <c r="F92" s="11">
         <v>-3784349</v>
       </c>
+      <c r="G92" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>18</v>
       </c>
@@ -2440,22 +2475,22 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G93" s="13">
+        <v>-409888</v>
       </c>
       <c r="H93" s="13">
-        <v>-409888</v>
+        <v>409888</v>
       </c>
       <c r="I93" s="13">
-        <v>409888</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>19</v>
       </c>
@@ -2464,44 +2499,44 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G94" s="11">
+        <v>-120847</v>
       </c>
       <c r="H94" s="11">
-        <v>-120847</v>
+        <v>120847</v>
       </c>
       <c r="I94" s="11">
-        <v>120847</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>-789128</v>
+        <v>-553351</v>
       </c>
       <c r="F95" s="15">
-        <v>-553351</v>
+        <v>-1910099</v>
       </c>
       <c r="G95" s="15">
-        <v>-1910099</v>
+        <v>-1087224</v>
       </c>
       <c r="H95" s="15">
-        <v>-1087224</v>
+        <v>-1157125</v>
       </c>
       <c r="I95" s="15">
-        <v>-1157125</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4680856</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>42</v>
       </c>
@@ -2513,7 +2548,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
@@ -2522,46 +2557,46 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-242923</v>
-      </c>
-      <c r="F97" s="11">
         <v>-691278</v>
       </c>
+      <c r="F97" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>-249309</v>
-      </c>
-      <c r="F98" s="13">
         <v>-526867</v>
       </c>
+      <c r="F98" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G98" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>17</v>
       </c>
@@ -2570,22 +2605,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="11">
+        <v>13</v>
+      </c>
+      <c r="F99" s="11">
         <v>-2424403</v>
       </c>
+      <c r="G99" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
@@ -2594,22 +2629,22 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G100" s="13">
+        <v>-325452</v>
       </c>
       <c r="H100" s="13">
-        <v>-325452</v>
+        <v>-1329146</v>
       </c>
       <c r="I100" s="13">
-        <v>-1329146</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1654598</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
@@ -2618,22 +2653,22 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G101" s="11">
+        <v>-81254</v>
       </c>
       <c r="H101" s="11">
-        <v>-81254</v>
+        <v>81254</v>
       </c>
       <c r="I101" s="11">
-        <v>81254</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>22</v>
       </c>
@@ -2642,13 +2677,13 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G102" s="13">
+        <v>0</v>
       </c>
       <c r="H102" s="13">
         <v>0</v>
@@ -2657,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>23</v>
       </c>
@@ -2666,44 +2701,44 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G103" s="11">
+        <v>-334173</v>
       </c>
       <c r="H103" s="11">
-        <v>-334173</v>
+        <v>334173</v>
       </c>
       <c r="I103" s="11">
-        <v>334173</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>-492232</v>
+        <v>-1218145</v>
       </c>
       <c r="F104" s="15">
-        <v>-1218145</v>
+        <v>-2424403</v>
       </c>
       <c r="G104" s="15">
-        <v>-2424403</v>
+        <v>-740879</v>
       </c>
       <c r="H104" s="15">
-        <v>-740879</v>
+        <v>-913719</v>
       </c>
       <c r="I104" s="15">
-        <v>-913719</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1654598</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>44</v>
       </c>
@@ -2715,7 +2750,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>45</v>
       </c>
@@ -2737,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>27</v>
       </c>
@@ -2746,22 +2781,22 @@
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>28</v>
       </c>
@@ -2785,29 +2820,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>-1281360</v>
+        <v>-1771496</v>
       </c>
       <c r="F109" s="15">
-        <v>-1771496</v>
+        <v>-4334502</v>
       </c>
       <c r="G109" s="15">
-        <v>-4334502</v>
+        <v>-1828103</v>
       </c>
       <c r="H109" s="15">
-        <v>-1828103</v>
+        <v>-2070844</v>
       </c>
       <c r="I109" s="15">
-        <v>-2070844</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3026258</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2817,7 +2852,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2827,7 +2862,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2837,7 +2872,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>46</v>
       </c>
@@ -2859,7 +2894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2869,7 +2904,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>47</v>
       </c>
@@ -2881,7 +2916,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>11</v>
       </c>
@@ -2905,55 +2940,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
-        <v>517854</v>
+        <v>1242651</v>
       </c>
       <c r="F117" s="13">
-        <v>1242651</v>
+        <v>-2418379</v>
       </c>
       <c r="G117" s="13">
-        <v>-2418379</v>
+        <v>0</v>
       </c>
       <c r="H117" s="13">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="I117" s="13">
-        <v>-2244349</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4680856</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G118" s="11">
+        <v>36762</v>
       </c>
       <c r="H118" s="11">
-        <v>36762</v>
+        <v>137862</v>
       </c>
       <c r="I118" s="11">
-        <v>137862</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215764</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>16</v>
       </c>
@@ -2962,22 +2997,22 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G119" s="13">
+        <v>505086</v>
       </c>
       <c r="H119" s="13">
-        <v>505086</v>
+        <v>1652938</v>
       </c>
       <c r="I119" s="13">
-        <v>1652938</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1491323</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>17</v>
       </c>
@@ -2986,22 +3021,22 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="11">
+        <v>13</v>
+      </c>
+      <c r="F120" s="11">
         <v>2171488</v>
       </c>
+      <c r="G120" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>18</v>
       </c>
@@ -3010,22 +3045,22 @@
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G121" s="13">
+        <v>205260</v>
       </c>
       <c r="H121" s="13">
-        <v>205260</v>
+        <v>1257702</v>
       </c>
       <c r="I121" s="13">
-        <v>1257702</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>900514</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>19</v>
       </c>
@@ -3034,44 +3069,44 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G122" s="11">
+        <v>56572</v>
       </c>
       <c r="H122" s="11">
-        <v>56572</v>
+        <v>402069</v>
       </c>
       <c r="I122" s="11">
-        <v>402069</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>439828</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15">
-        <v>517854</v>
+        <v>1242651</v>
       </c>
       <c r="F123" s="15">
-        <v>1242651</v>
+        <v>-246891</v>
       </c>
       <c r="G123" s="15">
-        <v>-246891</v>
+        <v>803680</v>
       </c>
       <c r="H123" s="15">
-        <v>803680</v>
+        <v>1206222</v>
       </c>
       <c r="I123" s="15">
-        <v>1206222</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1633427</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>49</v>
       </c>
@@ -3083,7 +3118,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>11</v>
       </c>
@@ -3092,46 +3127,46 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>320739</v>
-      </c>
-      <c r="F125" s="11">
         <v>909297</v>
       </c>
+      <c r="F125" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G125" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
-        <v>397616</v>
-      </c>
-      <c r="F126" s="13">
         <v>607618</v>
       </c>
+      <c r="F126" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G126" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>17</v>
       </c>
@@ -3140,22 +3175,22 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="11">
+        <v>13</v>
+      </c>
+      <c r="F127" s="11">
         <v>4443877</v>
       </c>
+      <c r="G127" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>18</v>
       </c>
@@ -3164,22 +3199,22 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G128" s="13">
+        <v>186844</v>
       </c>
       <c r="H128" s="13">
-        <v>186844</v>
+        <v>-1114685</v>
       </c>
       <c r="I128" s="13">
-        <v>-1114685</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2683661</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>19</v>
       </c>
@@ -3188,22 +3223,22 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G129" s="11">
+        <v>52889</v>
       </c>
       <c r="H129" s="11">
-        <v>52889</v>
+        <v>172400</v>
       </c>
       <c r="I129" s="11">
-        <v>172400</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>630655</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>22</v>
       </c>
@@ -3212,13 +3247,13 @@
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G130" s="13">
+        <v>0</v>
       </c>
       <c r="H130" s="13">
         <v>0</v>
@@ -3227,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>23</v>
       </c>
@@ -3236,44 +3271,44 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G131" s="11">
+        <v>673137</v>
       </c>
       <c r="H131" s="11">
-        <v>673137</v>
+        <v>1904689</v>
       </c>
       <c r="I131" s="11">
-        <v>1904689</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1357937</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15">
-        <v>718355</v>
+        <v>1516915</v>
       </c>
       <c r="F132" s="15">
-        <v>1516915</v>
+        <v>4443877</v>
       </c>
       <c r="G132" s="15">
-        <v>4443877</v>
+        <v>912870</v>
       </c>
       <c r="H132" s="15">
-        <v>912870</v>
+        <v>962404</v>
       </c>
       <c r="I132" s="15">
-        <v>962404</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4672253</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="16" t="s">
         <v>51</v>
       </c>
@@ -3285,7 +3320,7 @@
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="18" t="s">
         <v>52</v>
       </c>
@@ -3307,26 +3342,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>1236209</v>
+        <v>2759566</v>
       </c>
       <c r="F135" s="15">
-        <v>2759566</v>
+        <v>4196986</v>
       </c>
       <c r="G135" s="15">
-        <v>4196986</v>
+        <v>1716550</v>
       </c>
       <c r="H135" s="15">
-        <v>1716550</v>
+        <v>2168626</v>
       </c>
       <c r="I135" s="15">
-        <v>2168626</v>
+        <v>3038826</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sekhouz/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88165F98-AA67-403D-8BBC-A8439C1A806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929A8F5-9409-42C5-9944-6F3BDC5FF49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -657,16 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I135"/>
+  <dimension ref="B1:N135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -675,8 +690,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +707,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,8 +724,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -709,8 +739,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,8 +756,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,8 +773,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -743,8 +788,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -765,8 +815,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -775,10 +840,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -787,20 +857,25 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="F11" s="11">
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -811,176 +886,296 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>331147</v>
+      </c>
+      <c r="F12" s="13">
+        <v>399795</v>
+      </c>
+      <c r="G12" s="13">
+        <v>379400</v>
+      </c>
+      <c r="H12" s="13">
+        <v>342107</v>
+      </c>
+      <c r="I12" s="13">
+        <v>630921</v>
+      </c>
+      <c r="J12" s="13">
         <v>1040358</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>13509</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>13876</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>33096</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>158935</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>159449</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>200868</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
         <v>1388336</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>130775</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>118080</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>125586</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>37355</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>44487</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>65971</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>331147</v>
+      </c>
+      <c r="F18" s="15">
+        <v>399795</v>
+      </c>
+      <c r="G18" s="15">
+        <v>379400</v>
+      </c>
+      <c r="H18" s="15">
+        <v>342107</v>
+      </c>
+      <c r="I18" s="15">
+        <v>630921</v>
+      </c>
+      <c r="J18" s="15">
         <v>1040358</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1388336</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>340574</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>335892</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>425521</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -989,200 +1184,325 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
+        <v>245298</v>
+      </c>
+      <c r="F20" s="11">
+        <v>168161</v>
+      </c>
+      <c r="G20" s="11">
+        <v>192449</v>
+      </c>
+      <c r="H20" s="11">
+        <v>211992</v>
+      </c>
+      <c r="I20" s="11">
+        <v>84441</v>
+      </c>
+      <c r="J20" s="11">
         <v>243874</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>131363</v>
+      </c>
+      <c r="F21" s="13">
+        <v>56496</v>
+      </c>
+      <c r="G21" s="13">
+        <v>94001</v>
+      </c>
+      <c r="H21" s="13">
+        <v>27000</v>
+      </c>
+      <c r="I21" s="13">
+        <v>88700</v>
+      </c>
+      <c r="J21" s="13">
         <v>145000</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="11">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="11">
         <v>1052242</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="13">
+        <v>18</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="13">
         <v>70500</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>25000</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>107500</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="11">
+        <v>18</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="11">
         <v>17000</v>
       </c>
-      <c r="H24" s="11">
+      <c r="M24" s="11">
         <v>10000</v>
       </c>
-      <c r="I24" s="11">
+      <c r="N24" s="11">
         <v>61500</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11">
+        <v>18</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="11">
         <v>149626</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>183063</v>
       </c>
-      <c r="I26" s="11">
+      <c r="N26" s="11">
         <v>150887</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>376661</v>
+      </c>
+      <c r="F27" s="15">
+        <v>224657</v>
+      </c>
+      <c r="G27" s="15">
+        <v>286450</v>
+      </c>
+      <c r="H27" s="15">
+        <v>238992</v>
+      </c>
+      <c r="I27" s="15">
+        <v>173141</v>
+      </c>
+      <c r="J27" s="15">
         <v>388874</v>
       </c>
-      <c r="F27" s="15">
+      <c r="K27" s="15">
         <v>1052242</v>
       </c>
-      <c r="G27" s="15">
+      <c r="L27" s="15">
         <v>237126</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>218063</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>319887</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -1191,10 +1511,15 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1213,40 +1538,70 @@
       <c r="I29" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="19">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0</v>
+      </c>
+      <c r="N29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>13</v>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19">
         <v>0</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>13</v>
+      <c r="F31" s="19">
+        <v>0</v>
       </c>
       <c r="G31" s="19">
         <v>0</v>
@@ -1257,30 +1612,60 @@
       <c r="I31" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
+        <v>707808</v>
+      </c>
+      <c r="F32" s="15">
+        <v>624452</v>
+      </c>
+      <c r="G32" s="15">
+        <v>665850</v>
+      </c>
+      <c r="H32" s="15">
+        <v>581099</v>
+      </c>
+      <c r="I32" s="15">
+        <v>804062</v>
+      </c>
+      <c r="J32" s="15">
         <v>1429232</v>
       </c>
-      <c r="F32" s="15">
+      <c r="K32" s="15">
         <v>2440578</v>
       </c>
-      <c r="G32" s="15">
+      <c r="L32" s="15">
         <v>577700</v>
       </c>
-      <c r="H32" s="15">
+      <c r="M32" s="15">
         <v>553955</v>
       </c>
-      <c r="I32" s="15">
+      <c r="N32" s="15">
         <v>745408</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1289,8 +1674,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1299,8 +1689,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1309,10 +1704,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1331,8 +1731,23 @@
       <c r="I36" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1341,10 +1756,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1353,20 +1773,25 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
         <v>0</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
+      <c r="F39" s="11">
+        <v>0</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
@@ -1377,176 +1802,296 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>779304</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1074898</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1019923</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1189645</v>
+      </c>
+      <c r="I40" s="13">
+        <v>2496627</v>
+      </c>
+      <c r="J40" s="13">
         <v>4292629</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11">
+        <v>18</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="11">
         <v>79095</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>95529</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>215764</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="13">
+        <v>18</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="13">
         <v>1019242</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>1138782</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>1491323</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="11">
+        <v>18</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="11">
         <v>5955837</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="13">
+        <v>18</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13">
         <v>615148</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>847814</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>900514</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="11">
+        <v>18</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="11">
         <v>177419</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>281222</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>439828</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
+        <v>779304</v>
+      </c>
+      <c r="F46" s="15">
+        <v>1074898</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1019923</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1189645</v>
+      </c>
+      <c r="I46" s="15">
+        <v>2496627</v>
+      </c>
+      <c r="J46" s="15">
         <v>4292629</v>
       </c>
-      <c r="F46" s="15">
+      <c r="K46" s="15">
         <v>5955837</v>
       </c>
-      <c r="G46" s="15">
+      <c r="L46" s="15">
         <v>1890904</v>
       </c>
-      <c r="H46" s="15">
+      <c r="M46" s="15">
         <v>2363347</v>
       </c>
-      <c r="I46" s="15">
+      <c r="N46" s="15">
         <v>3047429</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1555,200 +2100,325 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>881840</v>
+      </c>
+      <c r="F48" s="11">
+        <v>709780</v>
+      </c>
+      <c r="G48" s="11">
+        <v>850481</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1035582</v>
+      </c>
+      <c r="I48" s="11">
+        <v>563662</v>
+      </c>
+      <c r="J48" s="11">
         <v>1600575</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>807452</v>
+      </c>
+      <c r="F49" s="13">
+        <v>369252</v>
+      </c>
+      <c r="G49" s="13">
+        <v>571514</v>
+      </c>
+      <c r="H49" s="13">
+        <v>156592</v>
+      </c>
+      <c r="I49" s="13">
+        <v>646925</v>
+      </c>
+      <c r="J49" s="13">
         <v>1134485</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="11">
+        <v>18</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11">
         <v>6868280</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="13">
+        <v>18</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13">
         <v>512296</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>214461</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>1029063</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11">
+        <v>18</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11">
         <v>134143</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>91146</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>630655</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="I53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
+        <v>18</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
         <v>1007310</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>1570516</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>1357937</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
+        <v>1689292</v>
+      </c>
+      <c r="F55" s="15">
+        <v>1079032</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1421995</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1192174</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1210587</v>
+      </c>
+      <c r="J55" s="15">
         <v>2735060</v>
       </c>
-      <c r="F55" s="15">
+      <c r="K55" s="15">
         <v>6868280</v>
       </c>
-      <c r="G55" s="15">
+      <c r="L55" s="15">
         <v>1653749</v>
       </c>
-      <c r="H55" s="15">
+      <c r="M55" s="15">
         <v>1876123</v>
       </c>
-      <c r="I55" s="15">
+      <c r="N55" s="15">
         <v>3017655</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -1757,10 +2427,15 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -1779,44 +2454,74 @@
       <c r="I57" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="19">
+        <v>0</v>
+      </c>
+      <c r="K57" s="19">
+        <v>0</v>
+      </c>
+      <c r="L57" s="19">
+        <v>0</v>
+      </c>
+      <c r="M57" s="19">
+        <v>0</v>
+      </c>
+      <c r="N57" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>13</v>
+      <c r="E58" s="15">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19">
         <v>0</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>13</v>
+      <c r="F59" s="19">
+        <v>0</v>
       </c>
       <c r="G59" s="19">
         <v>0</v>
@@ -1827,30 +2532,60 @@
       <c r="I59" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="19">
+        <v>0</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="19">
+        <v>0</v>
+      </c>
+      <c r="M59" s="19">
+        <v>0</v>
+      </c>
+      <c r="N59" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
+        <v>2468596</v>
+      </c>
+      <c r="F60" s="15">
+        <v>2153930</v>
+      </c>
+      <c r="G60" s="15">
+        <v>2441918</v>
+      </c>
+      <c r="H60" s="15">
+        <v>2381819</v>
+      </c>
+      <c r="I60" s="15">
+        <v>3707214</v>
+      </c>
+      <c r="J60" s="15">
         <v>7027689</v>
       </c>
-      <c r="F60" s="15">
+      <c r="K60" s="15">
         <v>12824117</v>
       </c>
-      <c r="G60" s="15">
+      <c r="L60" s="15">
         <v>3544653</v>
       </c>
-      <c r="H60" s="15">
+      <c r="M60" s="15">
         <v>4239470</v>
       </c>
-      <c r="I60" s="15">
+      <c r="N60" s="15">
         <v>6065084</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1859,8 +2594,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1869,8 +2609,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1879,10 +2624,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1901,8 +2651,23 @@
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1911,10 +2676,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1923,178 +2693,288 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>2353348</v>
+      </c>
+      <c r="F68" s="13">
+        <v>2688623</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2688253</v>
+      </c>
+      <c r="H68" s="13">
+        <v>3477406</v>
+      </c>
+      <c r="I68" s="13">
+        <v>3957115</v>
+      </c>
+      <c r="J68" s="13">
         <v>4126108</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>4126108</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11">
         <v>5854986</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>6884477</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>6519338</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="13">
+        <v>18</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13">
         <v>6412949</v>
       </c>
-      <c r="H70" s="13">
+      <c r="M70" s="13">
         <v>7141983</v>
       </c>
-      <c r="I70" s="13">
+      <c r="N70" s="13">
         <v>7424393</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="11">
+        <v>18</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11">
         <v>4289910</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="13">
+        <v>18</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="13">
         <v>4703865</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>7179997</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>7170497</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="11">
+        <v>18</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="11">
         <v>4749538</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>6321442</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>6666990</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2103,176 +2983,286 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>3594974</v>
+      </c>
+      <c r="F75" s="11">
+        <v>4220836</v>
+      </c>
+      <c r="G75" s="11">
+        <v>4419254</v>
+      </c>
+      <c r="H75" s="11">
+        <v>4885005</v>
+      </c>
+      <c r="I75" s="11">
+        <v>6675217</v>
+      </c>
+      <c r="J75" s="11">
         <v>5922224</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
+        <v>6146723</v>
+      </c>
+      <c r="F76" s="13">
+        <v>6535896</v>
+      </c>
+      <c r="G76" s="13">
+        <v>6079871</v>
+      </c>
+      <c r="H76" s="13">
+        <v>5799704</v>
+      </c>
+      <c r="I76" s="13">
+        <v>7293405</v>
+      </c>
+      <c r="J76" s="13">
         <v>7433840</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="11">
+        <v>18</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="11">
         <v>6527282</v>
       </c>
-      <c r="G77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13">
+        <v>18</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="13">
         <v>7266610</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>8578440</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>9572679</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="11">
+        <v>18</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="11">
         <v>7890765</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>9114600</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>10254553</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="11">
+        <v>18</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="11">
         <v>6732186</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>8579101</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>8999695</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2281,8 +3271,13 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2291,8 +3286,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2301,10 +3301,15 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2323,8 +3328,23 @@
       <c r="I85" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2333,10 +3353,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2345,13 +3370,18 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
@@ -2369,176 +3399,296 @@
       <c r="I88" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>-392731</v>
+      </c>
+      <c r="F89" s="13">
+        <v>-574106</v>
+      </c>
+      <c r="G89" s="13">
+        <v>-874192</v>
+      </c>
+      <c r="H89" s="13">
+        <v>-531771</v>
+      </c>
+      <c r="I89" s="13">
+        <v>-789128</v>
+      </c>
+      <c r="J89" s="13">
         <v>-553351</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>1874250</v>
       </c>
-      <c r="G89" s="13">
-        <v>0</v>
-      </c>
-      <c r="H89" s="13">
+      <c r="L89" s="13">
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
         <v>-2244349</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>-4680856</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="11">
+        <v>18</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="11">
         <v>-42333</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>42333</v>
       </c>
-      <c r="I90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="13">
+        <v>18</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="13">
         <v>-514156</v>
       </c>
-      <c r="H91" s="13">
+      <c r="M91" s="13">
         <v>514156</v>
       </c>
-      <c r="I91" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N91" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="11">
+        <v>18</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="11">
         <v>-3784349</v>
       </c>
-      <c r="G92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="13">
+        <v>18</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="13">
         <v>-409888</v>
       </c>
-      <c r="H93" s="13">
+      <c r="M93" s="13">
         <v>409888</v>
       </c>
-      <c r="I93" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N93" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="11">
+        <v>18</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="11">
         <v>-120847</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>120847</v>
       </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>-392731</v>
+      </c>
+      <c r="F95" s="15">
+        <v>-574106</v>
+      </c>
+      <c r="G95" s="15">
+        <v>-874192</v>
+      </c>
+      <c r="H95" s="15">
+        <v>-531771</v>
+      </c>
+      <c r="I95" s="15">
+        <v>-789128</v>
+      </c>
+      <c r="J95" s="15">
         <v>-553351</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>-1910099</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>-1087224</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>-1157125</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>-4680856</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2547,200 +3697,325 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>-347437</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-273638</v>
+      </c>
+      <c r="G97" s="11">
+        <v>-155539</v>
+      </c>
+      <c r="H97" s="11">
+        <v>-462906</v>
+      </c>
+      <c r="I97" s="11">
+        <v>-242923</v>
+      </c>
+      <c r="J97" s="11">
         <v>-691278</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>-204187</v>
+      </c>
+      <c r="F98" s="13">
+        <v>-56074</v>
+      </c>
+      <c r="G98" s="13">
+        <v>-259044</v>
+      </c>
+      <c r="H98" s="13">
+        <v>-69996</v>
+      </c>
+      <c r="I98" s="13">
+        <v>-249309</v>
+      </c>
+      <c r="J98" s="13">
         <v>-526867</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="11">
+        <v>18</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="11">
         <v>-2424403</v>
       </c>
-      <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="13">
+        <v>18</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="13">
         <v>-325452</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>-1329146</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>1654598</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="11">
+        <v>18</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="11">
         <v>-81254</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>81254</v>
       </c>
-      <c r="I101" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N101" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="13">
-        <v>0</v>
-      </c>
-      <c r="H102" s="13">
-        <v>0</v>
-      </c>
-      <c r="I102" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="13">
+        <v>0</v>
+      </c>
+      <c r="M102" s="13">
+        <v>0</v>
+      </c>
+      <c r="N102" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="11">
         <v>-334173</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>334173</v>
       </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
+        <v>-551624</v>
+      </c>
+      <c r="F104" s="15">
+        <v>-329712</v>
+      </c>
+      <c r="G104" s="15">
+        <v>-414583</v>
+      </c>
+      <c r="H104" s="15">
+        <v>-532902</v>
+      </c>
+      <c r="I104" s="15">
+        <v>-492232</v>
+      </c>
+      <c r="J104" s="15">
         <v>-1218145</v>
       </c>
-      <c r="F104" s="15">
+      <c r="K104" s="15">
         <v>-2424403</v>
       </c>
-      <c r="G104" s="15">
+      <c r="L104" s="15">
         <v>-740879</v>
       </c>
-      <c r="H104" s="15">
+      <c r="M104" s="15">
         <v>-913719</v>
       </c>
-      <c r="I104" s="15">
+      <c r="N104" s="15">
         <v>1654598</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -2749,10 +4024,15 @@
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -2771,37 +4051,67 @@
       <c r="I106" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="19">
+        <v>0</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0</v>
+      </c>
+      <c r="L106" s="19">
+        <v>0</v>
+      </c>
+      <c r="M106" s="19">
+        <v>0</v>
+      </c>
+      <c r="N106" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D107" s="15"/>
-      <c r="E107" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>13</v>
+      <c r="E107" s="15">
+        <v>0</v>
+      </c>
+      <c r="F107" s="15">
+        <v>0</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
+      <c r="H107" s="15">
+        <v>0</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19">
@@ -2819,30 +4129,60 @@
       <c r="I108" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="19">
+        <v>0</v>
+      </c>
+      <c r="K108" s="19">
+        <v>0</v>
+      </c>
+      <c r="L108" s="19">
+        <v>0</v>
+      </c>
+      <c r="M108" s="19">
+        <v>0</v>
+      </c>
+      <c r="N108" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
+        <v>-944355</v>
+      </c>
+      <c r="F109" s="15">
+        <v>-903818</v>
+      </c>
+      <c r="G109" s="15">
+        <v>-1288775</v>
+      </c>
+      <c r="H109" s="15">
+        <v>-1064673</v>
+      </c>
+      <c r="I109" s="15">
+        <v>-1281360</v>
+      </c>
+      <c r="J109" s="15">
         <v>-1771496</v>
       </c>
-      <c r="F109" s="15">
+      <c r="K109" s="15">
         <v>-4334502</v>
       </c>
-      <c r="G109" s="15">
+      <c r="L109" s="15">
         <v>-1828103</v>
       </c>
-      <c r="H109" s="15">
+      <c r="M109" s="15">
         <v>-2070844</v>
       </c>
-      <c r="I109" s="15">
+      <c r="N109" s="15">
         <v>-3026258</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2851,8 +4191,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2861,8 +4206,13 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2871,10 +4221,15 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -2893,8 +4248,23 @@
       <c r="I113" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2903,10 +4273,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -2915,13 +4290,18 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
@@ -2939,176 +4319,296 @@
       <c r="I116" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="11">
+        <v>0</v>
+      </c>
+      <c r="K116" s="11">
+        <v>0</v>
+      </c>
+      <c r="L116" s="11">
+        <v>0</v>
+      </c>
+      <c r="M116" s="11">
+        <v>0</v>
+      </c>
+      <c r="N116" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
+        <v>386573</v>
+      </c>
+      <c r="F117" s="13">
+        <v>500792</v>
+      </c>
+      <c r="G117" s="13">
+        <v>145731</v>
+      </c>
+      <c r="H117" s="13">
+        <v>657874</v>
+      </c>
+      <c r="I117" s="13">
+        <v>517854</v>
+      </c>
+      <c r="J117" s="13">
         <v>1242651</v>
       </c>
-      <c r="F117" s="13">
+      <c r="K117" s="13">
         <v>-2418379</v>
       </c>
-      <c r="G117" s="13">
-        <v>0</v>
-      </c>
-      <c r="H117" s="13">
+      <c r="L117" s="13">
+        <v>0</v>
+      </c>
+      <c r="M117" s="13">
         <v>-2244349</v>
       </c>
-      <c r="I117" s="13">
+      <c r="N117" s="13">
         <v>-4680856</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="11">
+        <v>18</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118" s="11">
         <v>36762</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>137862</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>215764</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="13">
+        <v>18</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="13">
         <v>505086</v>
       </c>
-      <c r="H119" s="13">
+      <c r="M119" s="13">
         <v>1652938</v>
       </c>
-      <c r="I119" s="13">
+      <c r="N119" s="13">
         <v>1491323</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="11">
+        <v>18</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="11">
         <v>2171488</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="13">
+        <v>18</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="13">
         <v>205260</v>
       </c>
-      <c r="H121" s="13">
+      <c r="M121" s="13">
         <v>1257702</v>
       </c>
-      <c r="I121" s="13">
+      <c r="N121" s="13">
         <v>900514</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="11">
+        <v>18</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122" s="11">
         <v>56572</v>
       </c>
-      <c r="H122" s="11">
+      <c r="M122" s="11">
         <v>402069</v>
       </c>
-      <c r="I122" s="11">
+      <c r="N122" s="11">
         <v>439828</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15">
+        <v>386573</v>
+      </c>
+      <c r="F123" s="15">
+        <v>500792</v>
+      </c>
+      <c r="G123" s="15">
+        <v>145731</v>
+      </c>
+      <c r="H123" s="15">
+        <v>657874</v>
+      </c>
+      <c r="I123" s="15">
+        <v>517854</v>
+      </c>
+      <c r="J123" s="15">
         <v>1242651</v>
       </c>
-      <c r="F123" s="15">
+      <c r="K123" s="15">
         <v>-246891</v>
       </c>
-      <c r="G123" s="15">
+      <c r="L123" s="15">
         <v>803680</v>
       </c>
-      <c r="H123" s="15">
+      <c r="M123" s="15">
         <v>1206222</v>
       </c>
-      <c r="I123" s="15">
+      <c r="N123" s="15">
         <v>-1633427</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -3117,200 +4617,325 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>534403</v>
+      </c>
+      <c r="F125" s="11">
+        <v>436142</v>
+      </c>
+      <c r="G125" s="11">
+        <v>694942</v>
+      </c>
+      <c r="H125" s="11">
+        <v>572676</v>
+      </c>
+      <c r="I125" s="11">
+        <v>320739</v>
+      </c>
+      <c r="J125" s="11">
         <v>909297</v>
       </c>
-      <c r="F125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
+        <v>603265</v>
+      </c>
+      <c r="F126" s="13">
+        <v>313178</v>
+      </c>
+      <c r="G126" s="13">
+        <v>312470</v>
+      </c>
+      <c r="H126" s="13">
+        <v>86596</v>
+      </c>
+      <c r="I126" s="13">
+        <v>397616</v>
+      </c>
+      <c r="J126" s="13">
         <v>607618</v>
       </c>
-      <c r="F126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="11">
+        <v>18</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="11">
         <v>4443877</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="13">
+        <v>18</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" s="13">
         <v>186844</v>
       </c>
-      <c r="H128" s="13">
+      <c r="M128" s="13">
         <v>-1114685</v>
       </c>
-      <c r="I128" s="13">
+      <c r="N128" s="13">
         <v>2683661</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="11">
+        <v>18</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129" s="11">
         <v>52889</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>172400</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>630655</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="13">
-        <v>0</v>
-      </c>
-      <c r="H130" s="13">
-        <v>0</v>
-      </c>
-      <c r="I130" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="13">
+        <v>0</v>
+      </c>
+      <c r="M130" s="13">
+        <v>0</v>
+      </c>
+      <c r="N130" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="11">
+        <v>18</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" s="11">
         <v>673137</v>
       </c>
-      <c r="H131" s="11">
+      <c r="M131" s="11">
         <v>1904689</v>
       </c>
-      <c r="I131" s="11">
+      <c r="N131" s="11">
         <v>1357937</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15">
+        <v>1137668</v>
+      </c>
+      <c r="F132" s="15">
+        <v>749320</v>
+      </c>
+      <c r="G132" s="15">
+        <v>1007412</v>
+      </c>
+      <c r="H132" s="15">
+        <v>659272</v>
+      </c>
+      <c r="I132" s="15">
+        <v>718355</v>
+      </c>
+      <c r="J132" s="15">
         <v>1516915</v>
       </c>
-      <c r="F132" s="15">
+      <c r="K132" s="15">
         <v>4443877</v>
       </c>
-      <c r="G132" s="15">
+      <c r="L132" s="15">
         <v>912870</v>
       </c>
-      <c r="H132" s="15">
+      <c r="M132" s="15">
         <v>962404</v>
       </c>
-      <c r="I132" s="15">
+      <c r="N132" s="15">
         <v>4672253</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -3319,10 +4944,15 @@
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
@@ -3341,26 +4971,56 @@
       <c r="I134" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="19">
+        <v>0</v>
+      </c>
+      <c r="K134" s="19">
+        <v>0</v>
+      </c>
+      <c r="L134" s="19">
+        <v>0</v>
+      </c>
+      <c r="M134" s="19">
+        <v>0</v>
+      </c>
+      <c r="N134" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>1524241</v>
+      </c>
+      <c r="F135" s="15">
+        <v>1250112</v>
+      </c>
+      <c r="G135" s="15">
+        <v>1153143</v>
+      </c>
+      <c r="H135" s="15">
+        <v>1317146</v>
+      </c>
+      <c r="I135" s="15">
+        <v>1236209</v>
+      </c>
+      <c r="J135" s="15">
         <v>2759566</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>4196986</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>1716550</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>2168626</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>3038826</v>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929A8F5-9409-42C5-9944-6F3BDC5FF49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1CB84-D5DC-4958-B94E-7FBA89AE8F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -676,12 +676,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,7 +696,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -886,11 +886,11 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -911,25 +911,25 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>331147</v>
+        <v>399795</v>
       </c>
       <c r="F12" s="13">
-        <v>399795</v>
+        <v>379400</v>
       </c>
       <c r="G12" s="13">
-        <v>379400</v>
+        <v>342107</v>
       </c>
       <c r="H12" s="13">
-        <v>342107</v>
+        <v>630921</v>
       </c>
       <c r="I12" s="13">
-        <v>630921</v>
-      </c>
-      <c r="J12" s="13">
         <v>1040358</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -967,20 +967,20 @@
       <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="K13" s="11">
+        <v>13509</v>
       </c>
       <c r="L13" s="11">
-        <v>13509</v>
+        <v>13876</v>
       </c>
       <c r="M13" s="11">
-        <v>13876</v>
+        <v>33096</v>
       </c>
       <c r="N13" s="11">
-        <v>33096</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24307</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1006,20 +1006,20 @@
       <c r="J14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="K14" s="13">
+        <v>158935</v>
       </c>
       <c r="L14" s="13">
-        <v>158935</v>
+        <v>159449</v>
       </c>
       <c r="M14" s="13">
-        <v>159449</v>
+        <v>200868</v>
       </c>
       <c r="N14" s="13">
-        <v>200868</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>188595</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1042,12 +1042,12 @@
       <c r="I15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="J15" s="11">
         <v>1388336</v>
       </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1084,20 +1084,20 @@
       <c r="J16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="K16" s="13">
+        <v>130775</v>
       </c>
       <c r="L16" s="13">
-        <v>130775</v>
+        <v>118080</v>
       </c>
       <c r="M16" s="13">
-        <v>118080</v>
+        <v>125586</v>
       </c>
       <c r="N16" s="13">
-        <v>125586</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>159740</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1123,57 +1123,57 @@
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>37355</v>
       </c>
       <c r="L17" s="11">
-        <v>37355</v>
+        <v>44487</v>
       </c>
       <c r="M17" s="11">
-        <v>44487</v>
+        <v>65971</v>
       </c>
       <c r="N17" s="11">
-        <v>65971</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>331147</v>
+        <v>399795</v>
       </c>
       <c r="F18" s="15">
-        <v>399795</v>
+        <v>379400</v>
       </c>
       <c r="G18" s="15">
-        <v>379400</v>
+        <v>342107</v>
       </c>
       <c r="H18" s="15">
-        <v>342107</v>
+        <v>630921</v>
       </c>
       <c r="I18" s="15">
-        <v>630921</v>
+        <v>1040358</v>
       </c>
       <c r="J18" s="15">
-        <v>1040358</v>
+        <v>1388336</v>
       </c>
       <c r="K18" s="15">
-        <v>1388336</v>
+        <v>340574</v>
       </c>
       <c r="L18" s="15">
-        <v>340574</v>
+        <v>335892</v>
       </c>
       <c r="M18" s="15">
-        <v>335892</v>
+        <v>425521</v>
       </c>
       <c r="N18" s="15">
-        <v>425521</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>416925</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1199,23 +1199,23 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
-        <v>245298</v>
+        <v>168161</v>
       </c>
       <c r="F20" s="11">
-        <v>168161</v>
+        <v>192449</v>
       </c>
       <c r="G20" s="11">
-        <v>192449</v>
+        <v>211992</v>
       </c>
       <c r="H20" s="11">
-        <v>211992</v>
+        <v>84441</v>
       </c>
       <c r="I20" s="11">
-        <v>84441</v>
-      </c>
-      <c r="J20" s="11">
         <v>243874</v>
       </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K20" s="11" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>19</v>
       </c>
@@ -1238,23 +1238,23 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>131363</v>
+        <v>56496</v>
       </c>
       <c r="F21" s="13">
-        <v>56496</v>
+        <v>94001</v>
       </c>
       <c r="G21" s="13">
-        <v>94001</v>
+        <v>27000</v>
       </c>
       <c r="H21" s="13">
-        <v>27000</v>
+        <v>88700</v>
       </c>
       <c r="I21" s="13">
-        <v>88700</v>
-      </c>
-      <c r="J21" s="13">
         <v>145000</v>
       </c>
+      <c r="J21" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" s="13" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
@@ -1291,12 +1291,12 @@
       <c r="I22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="J22" s="11">
         <v>1052242</v>
       </c>
+      <c r="K22" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1333,20 +1333,20 @@
       <c r="J23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>18</v>
+      <c r="K23" s="13">
+        <v>70500</v>
       </c>
       <c r="L23" s="13">
-        <v>70500</v>
+        <v>25000</v>
       </c>
       <c r="M23" s="13">
-        <v>25000</v>
+        <v>107500</v>
       </c>
       <c r="N23" s="13">
-        <v>107500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
@@ -1372,20 +1372,20 @@
       <c r="J24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>18</v>
+      <c r="K24" s="11">
+        <v>17000</v>
       </c>
       <c r="L24" s="11">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M24" s="11">
-        <v>10000</v>
+        <v>61500</v>
       </c>
       <c r="N24" s="11">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
@@ -1411,8 +1411,8 @@
       <c r="J25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>18</v>
+      <c r="K25" s="13">
+        <v>0</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
@@ -1450,57 +1450,57 @@
       <c r="J26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>18</v>
+      <c r="K26" s="11">
+        <v>149626</v>
       </c>
       <c r="L26" s="11">
-        <v>149626</v>
+        <v>183063</v>
       </c>
       <c r="M26" s="11">
-        <v>183063</v>
+        <v>150887</v>
       </c>
       <c r="N26" s="11">
-        <v>150887</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69680</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>376661</v>
+        <v>224657</v>
       </c>
       <c r="F27" s="15">
-        <v>224657</v>
+        <v>286450</v>
       </c>
       <c r="G27" s="15">
-        <v>286450</v>
+        <v>238992</v>
       </c>
       <c r="H27" s="15">
-        <v>238992</v>
+        <v>173141</v>
       </c>
       <c r="I27" s="15">
-        <v>173141</v>
+        <v>388874</v>
       </c>
       <c r="J27" s="15">
-        <v>388874</v>
+        <v>1052242</v>
       </c>
       <c r="K27" s="15">
-        <v>1052242</v>
+        <v>237126</v>
       </c>
       <c r="L27" s="15">
-        <v>237126</v>
+        <v>218063</v>
       </c>
       <c r="M27" s="15">
-        <v>218063</v>
+        <v>319887</v>
       </c>
       <c r="N27" s="15">
-        <v>319887</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>264180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
@@ -1569,8 +1569,8 @@
       <c r="G30" s="15">
         <v>0</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
+      <c r="H30" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>18</v>
@@ -1591,7 +1591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
@@ -1612,11 +1612,11 @@
       <c r="I31" s="19">
         <v>0</v>
       </c>
-      <c r="J31" s="19">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>18</v>
+      <c r="J31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0</v>
       </c>
       <c r="L31" s="19">
         <v>0</v>
@@ -1628,44 +1628,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>707808</v>
+        <v>624452</v>
       </c>
       <c r="F32" s="15">
-        <v>624452</v>
+        <v>665850</v>
       </c>
       <c r="G32" s="15">
-        <v>665850</v>
+        <v>581099</v>
       </c>
       <c r="H32" s="15">
-        <v>581099</v>
+        <v>804062</v>
       </c>
       <c r="I32" s="15">
-        <v>804062</v>
+        <v>1429232</v>
       </c>
       <c r="J32" s="15">
-        <v>1429232</v>
+        <v>2440578</v>
       </c>
       <c r="K32" s="15">
-        <v>2440578</v>
+        <v>577700</v>
       </c>
       <c r="L32" s="15">
-        <v>577700</v>
+        <v>553955</v>
       </c>
       <c r="M32" s="15">
-        <v>553955</v>
+        <v>745408</v>
       </c>
       <c r="N32" s="15">
-        <v>745408</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>681105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1680,7 +1680,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1710,7 +1710,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1762,7 +1762,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1802,11 +1802,11 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>18</v>
+      <c r="J39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
       </c>
       <c r="L39" s="11">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>19</v>
       </c>
@@ -1827,25 +1827,25 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>779304</v>
+        <v>1074898</v>
       </c>
       <c r="F40" s="13">
-        <v>1074898</v>
+        <v>1019923</v>
       </c>
       <c r="G40" s="13">
-        <v>1019923</v>
+        <v>1189645</v>
       </c>
       <c r="H40" s="13">
-        <v>1189645</v>
+        <v>2496627</v>
       </c>
       <c r="I40" s="13">
-        <v>2496627</v>
-      </c>
-      <c r="J40" s="13">
         <v>4292629</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>18</v>
+      <c r="J40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>20</v>
       </c>
@@ -1883,20 +1883,20 @@
       <c r="J41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>18</v>
+      <c r="K41" s="11">
+        <v>79095</v>
       </c>
       <c r="L41" s="11">
-        <v>79095</v>
+        <v>95529</v>
       </c>
       <c r="M41" s="11">
-        <v>95529</v>
+        <v>215764</v>
       </c>
       <c r="N41" s="11">
-        <v>215764</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>156143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>21</v>
       </c>
@@ -1922,20 +1922,20 @@
       <c r="J42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>18</v>
+      <c r="K42" s="13">
+        <v>1019242</v>
       </c>
       <c r="L42" s="13">
-        <v>1019242</v>
+        <v>1138782</v>
       </c>
       <c r="M42" s="13">
-        <v>1138782</v>
+        <v>1491323</v>
       </c>
       <c r="N42" s="13">
-        <v>1491323</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1460455</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1958,12 +1958,12 @@
       <c r="I43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="11">
+      <c r="J43" s="11">
         <v>5955837</v>
       </c>
+      <c r="K43" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L43" s="11" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>23</v>
       </c>
@@ -2000,20 +2000,20 @@
       <c r="J44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>18</v>
+      <c r="K44" s="13">
+        <v>615148</v>
       </c>
       <c r="L44" s="13">
-        <v>615148</v>
+        <v>847814</v>
       </c>
       <c r="M44" s="13">
-        <v>847814</v>
+        <v>900514</v>
       </c>
       <c r="N44" s="13">
-        <v>900514</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1054631</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
@@ -2039,57 +2039,57 @@
       <c r="J45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>18</v>
+      <c r="K45" s="11">
+        <v>177419</v>
       </c>
       <c r="L45" s="11">
-        <v>177419</v>
+        <v>281222</v>
       </c>
       <c r="M45" s="11">
-        <v>281222</v>
+        <v>439828</v>
       </c>
       <c r="N45" s="11">
-        <v>439828</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>317222</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>779304</v>
+        <v>1074898</v>
       </c>
       <c r="F46" s="15">
-        <v>1074898</v>
+        <v>1019923</v>
       </c>
       <c r="G46" s="15">
-        <v>1019923</v>
+        <v>1189645</v>
       </c>
       <c r="H46" s="15">
-        <v>1189645</v>
+        <v>2496627</v>
       </c>
       <c r="I46" s="15">
-        <v>2496627</v>
+        <v>4292629</v>
       </c>
       <c r="J46" s="15">
-        <v>4292629</v>
+        <v>5955837</v>
       </c>
       <c r="K46" s="15">
-        <v>5955837</v>
+        <v>1890904</v>
       </c>
       <c r="L46" s="15">
-        <v>1890904</v>
+        <v>2363347</v>
       </c>
       <c r="M46" s="15">
-        <v>2363347</v>
+        <v>3047429</v>
       </c>
       <c r="N46" s="15">
-        <v>3047429</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2988451</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>38</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -2115,23 +2115,23 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>881840</v>
+        <v>709780</v>
       </c>
       <c r="F48" s="11">
-        <v>709780</v>
+        <v>850481</v>
       </c>
       <c r="G48" s="11">
-        <v>850481</v>
+        <v>1035582</v>
       </c>
       <c r="H48" s="11">
-        <v>1035582</v>
+        <v>563662</v>
       </c>
       <c r="I48" s="11">
-        <v>563662</v>
-      </c>
-      <c r="J48" s="11">
         <v>1600575</v>
       </c>
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K48" s="11" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>19</v>
       </c>
@@ -2154,23 +2154,23 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>807452</v>
+        <v>369252</v>
       </c>
       <c r="F49" s="13">
-        <v>369252</v>
+        <v>571514</v>
       </c>
       <c r="G49" s="13">
-        <v>571514</v>
+        <v>156592</v>
       </c>
       <c r="H49" s="13">
-        <v>156592</v>
+        <v>646925</v>
       </c>
       <c r="I49" s="13">
-        <v>646925</v>
-      </c>
-      <c r="J49" s="13">
         <v>1134485</v>
       </c>
+      <c r="J49" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K49" s="13" t="s">
         <v>18</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>22</v>
       </c>
@@ -2207,12 +2207,12 @@
       <c r="I50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="J50" s="11">
         <v>6868280</v>
       </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L50" s="11" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>23</v>
       </c>
@@ -2249,20 +2249,20 @@
       <c r="J51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>18</v>
+      <c r="K51" s="13">
+        <v>512296</v>
       </c>
       <c r="L51" s="13">
-        <v>512296</v>
+        <v>214461</v>
       </c>
       <c r="M51" s="13">
-        <v>214461</v>
+        <v>1029063</v>
       </c>
       <c r="N51" s="13">
-        <v>1029063</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1745859</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>24</v>
       </c>
@@ -2288,20 +2288,20 @@
       <c r="J52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>18</v>
+      <c r="K52" s="11">
+        <v>134143</v>
       </c>
       <c r="L52" s="11">
-        <v>134143</v>
+        <v>91146</v>
       </c>
       <c r="M52" s="11">
-        <v>91146</v>
+        <v>630655</v>
       </c>
       <c r="N52" s="11">
-        <v>630655</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>731194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>27</v>
       </c>
@@ -2327,8 +2327,8 @@
       <c r="J53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>18</v>
+      <c r="K53" s="13">
+        <v>0</v>
       </c>
       <c r="L53" s="13">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>28</v>
       </c>
@@ -2366,57 +2366,57 @@
       <c r="J54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>18</v>
+      <c r="K54" s="11">
+        <v>1007310</v>
       </c>
       <c r="L54" s="11">
-        <v>1007310</v>
+        <v>1570516</v>
       </c>
       <c r="M54" s="11">
-        <v>1570516</v>
+        <v>1357937</v>
       </c>
       <c r="N54" s="11">
-        <v>1357937</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>663048</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>1689292</v>
+        <v>1079032</v>
       </c>
       <c r="F55" s="15">
-        <v>1079032</v>
+        <v>1421995</v>
       </c>
       <c r="G55" s="15">
-        <v>1421995</v>
+        <v>1192174</v>
       </c>
       <c r="H55" s="15">
-        <v>1192174</v>
+        <v>1210587</v>
       </c>
       <c r="I55" s="15">
-        <v>1210587</v>
+        <v>2735060</v>
       </c>
       <c r="J55" s="15">
-        <v>2735060</v>
+        <v>6868280</v>
       </c>
       <c r="K55" s="15">
-        <v>6868280</v>
+        <v>1653749</v>
       </c>
       <c r="L55" s="15">
-        <v>1653749</v>
+        <v>1876123</v>
       </c>
       <c r="M55" s="15">
-        <v>1876123</v>
+        <v>3017655</v>
       </c>
       <c r="N55" s="15">
-        <v>3017655</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3140101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>39</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>31</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>32</v>
       </c>
@@ -2487,8 +2487,8 @@
       <c r="G58" s="15">
         <v>0</v>
       </c>
-      <c r="H58" s="15">
-        <v>0</v>
+      <c r="H58" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>18</v>
@@ -2509,7 +2509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>33</v>
       </c>
@@ -2532,11 +2532,11 @@
       <c r="I59" s="19">
         <v>0</v>
       </c>
-      <c r="J59" s="19">
-        <v>0</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>18</v>
+      <c r="J59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="19">
+        <v>0</v>
       </c>
       <c r="L59" s="19">
         <v>0</v>
@@ -2548,44 +2548,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
-        <v>2468596</v>
+        <v>2153930</v>
       </c>
       <c r="F60" s="15">
-        <v>2153930</v>
+        <v>2441918</v>
       </c>
       <c r="G60" s="15">
-        <v>2441918</v>
+        <v>2381819</v>
       </c>
       <c r="H60" s="15">
-        <v>2381819</v>
+        <v>3707214</v>
       </c>
       <c r="I60" s="15">
-        <v>3707214</v>
+        <v>7027689</v>
       </c>
       <c r="J60" s="15">
-        <v>7027689</v>
+        <v>12824117</v>
       </c>
       <c r="K60" s="15">
-        <v>12824117</v>
+        <v>3544653</v>
       </c>
       <c r="L60" s="15">
-        <v>3544653</v>
+        <v>4239470</v>
       </c>
       <c r="M60" s="15">
-        <v>4239470</v>
+        <v>6065084</v>
       </c>
       <c r="N60" s="15">
-        <v>6065084</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6128552</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2600,7 +2600,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2630,7 +2630,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>40</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2682,7 +2682,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>41</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>19</v>
       </c>
@@ -2747,25 +2747,25 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>2353348</v>
+        <v>2688623</v>
       </c>
       <c r="F68" s="13">
-        <v>2688623</v>
+        <v>2688253</v>
       </c>
       <c r="G68" s="13">
-        <v>2688253</v>
+        <v>3477406</v>
       </c>
       <c r="H68" s="13">
-        <v>3477406</v>
+        <v>3957115</v>
       </c>
       <c r="I68" s="13">
-        <v>3957115</v>
+        <v>4126108</v>
       </c>
       <c r="J68" s="13">
         <v>4126108</v>
       </c>
-      <c r="K68" s="13">
-        <v>4126108</v>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L68" s="13" t="s">
         <v>18</v>
@@ -2777,7 +2777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -2803,20 +2803,20 @@
       <c r="J69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>18</v>
+      <c r="K69" s="11">
+        <v>5854986</v>
       </c>
       <c r="L69" s="11">
-        <v>5854986</v>
+        <v>6884477</v>
       </c>
       <c r="M69" s="11">
-        <v>6884477</v>
+        <v>6519338</v>
       </c>
       <c r="N69" s="11">
-        <v>6519338</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6423787</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>21</v>
       </c>
@@ -2842,20 +2842,20 @@
       <c r="J70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K70" s="13" t="s">
-        <v>18</v>
+      <c r="K70" s="13">
+        <v>6412949</v>
       </c>
       <c r="L70" s="13">
-        <v>6412949</v>
+        <v>7141983</v>
       </c>
       <c r="M70" s="13">
-        <v>7141983</v>
+        <v>7424393</v>
       </c>
       <c r="N70" s="13">
-        <v>7424393</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7743869</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>22</v>
       </c>
@@ -2878,12 +2878,12 @@
       <c r="I71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="11">
+      <c r="J71" s="11">
         <v>4289910</v>
       </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L71" s="11" t="s">
         <v>18</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>23</v>
       </c>
@@ -2920,20 +2920,20 @@
       <c r="J72" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="13" t="s">
-        <v>18</v>
+      <c r="K72" s="13">
+        <v>4703865</v>
       </c>
       <c r="L72" s="13">
-        <v>4703865</v>
+        <v>7179997</v>
       </c>
       <c r="M72" s="13">
-        <v>7179997</v>
+        <v>7170497</v>
       </c>
       <c r="N72" s="13">
-        <v>7170497</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6602172</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2959,20 +2959,20 @@
       <c r="J73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="11" t="s">
-        <v>18</v>
+      <c r="K73" s="11">
+        <v>4749538</v>
       </c>
       <c r="L73" s="11">
-        <v>4749538</v>
+        <v>6321442</v>
       </c>
       <c r="M73" s="11">
-        <v>6321442</v>
+        <v>6666990</v>
       </c>
       <c r="N73" s="11">
-        <v>6666990</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7163516</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>43</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
@@ -2998,23 +2998,23 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>3594974</v>
+        <v>4220836</v>
       </c>
       <c r="F75" s="11">
-        <v>4220836</v>
+        <v>4419254</v>
       </c>
       <c r="G75" s="11">
-        <v>4419254</v>
+        <v>4885005</v>
       </c>
       <c r="H75" s="11">
-        <v>4885005</v>
+        <v>6675217</v>
       </c>
       <c r="I75" s="11">
-        <v>6675217</v>
-      </c>
-      <c r="J75" s="11">
         <v>5922224</v>
       </c>
+      <c r="J75" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K75" s="11" t="s">
         <v>18</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>19</v>
       </c>
@@ -3037,23 +3037,23 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>6146723</v>
+        <v>6535896</v>
       </c>
       <c r="F76" s="13">
-        <v>6535896</v>
+        <v>6079871</v>
       </c>
       <c r="G76" s="13">
-        <v>6079871</v>
+        <v>5799704</v>
       </c>
       <c r="H76" s="13">
-        <v>5799704</v>
+        <v>7293405</v>
       </c>
       <c r="I76" s="13">
-        <v>7293405</v>
-      </c>
-      <c r="J76" s="13">
         <v>7433840</v>
       </c>
+      <c r="J76" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K76" s="13" t="s">
         <v>18</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>22</v>
       </c>
@@ -3090,12 +3090,12 @@
       <c r="I77" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" s="11">
+      <c r="J77" s="11">
         <v>6527282</v>
       </c>
+      <c r="K77" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L77" s="11" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>23</v>
       </c>
@@ -3132,20 +3132,20 @@
       <c r="J78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="13" t="s">
-        <v>18</v>
+      <c r="K78" s="13">
+        <v>7266610</v>
       </c>
       <c r="L78" s="13">
-        <v>7266610</v>
+        <v>8578440</v>
       </c>
       <c r="M78" s="13">
-        <v>8578440</v>
+        <v>9572679</v>
       </c>
       <c r="N78" s="13">
-        <v>9572679</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12697156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>24</v>
       </c>
@@ -3171,20 +3171,20 @@
       <c r="J79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>18</v>
+      <c r="K79" s="11">
+        <v>7890765</v>
       </c>
       <c r="L79" s="11">
-        <v>7890765</v>
+        <v>9114600</v>
       </c>
       <c r="M79" s="11">
-        <v>9114600</v>
+        <v>10254553</v>
       </c>
       <c r="N79" s="11">
-        <v>10254553</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12827965</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
@@ -3249,20 +3249,20 @@
       <c r="J81" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>18</v>
+      <c r="K81" s="11">
+        <v>6732186</v>
       </c>
       <c r="L81" s="11">
-        <v>6732186</v>
+        <v>8579101</v>
       </c>
       <c r="M81" s="11">
-        <v>8579101</v>
+        <v>8999695</v>
       </c>
       <c r="N81" s="11">
-        <v>8999695</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9515614</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3277,7 +3277,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3292,7 +3292,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3307,7 +3307,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>44</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>45</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>16</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>19</v>
       </c>
@@ -3424,37 +3424,37 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-392731</v>
+        <v>-574106</v>
       </c>
       <c r="F89" s="13">
-        <v>-574106</v>
+        <v>-874192</v>
       </c>
       <c r="G89" s="13">
-        <v>-874192</v>
+        <v>-531771</v>
       </c>
       <c r="H89" s="13">
-        <v>-531771</v>
+        <v>-789128</v>
       </c>
       <c r="I89" s="13">
-        <v>-789128</v>
+        <v>-553351</v>
       </c>
       <c r="J89" s="13">
-        <v>-553351</v>
+        <v>1874250</v>
       </c>
       <c r="K89" s="13">
-        <v>1874250</v>
+        <v>0</v>
       </c>
       <c r="L89" s="13">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="M89" s="13">
-        <v>-2244349</v>
+        <v>-4680856</v>
       </c>
       <c r="N89" s="13">
-        <v>-4680856</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6925205</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>20</v>
       </c>
@@ -3480,20 +3480,20 @@
       <c r="J90" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K90" s="11" t="s">
-        <v>18</v>
+      <c r="K90" s="11">
+        <v>-42333</v>
       </c>
       <c r="L90" s="11">
-        <v>-42333</v>
+        <v>42333</v>
       </c>
       <c r="M90" s="11">
-        <v>42333</v>
+        <v>0</v>
       </c>
       <c r="N90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-316004</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>21</v>
       </c>
@@ -3519,20 +3519,20 @@
       <c r="J91" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K91" s="13" t="s">
-        <v>18</v>
+      <c r="K91" s="13">
+        <v>-514156</v>
       </c>
       <c r="L91" s="13">
-        <v>-514156</v>
+        <v>514156</v>
       </c>
       <c r="M91" s="13">
-        <v>514156</v>
+        <v>0</v>
       </c>
       <c r="N91" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2691562</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>22</v>
       </c>
@@ -3555,12 +3555,12 @@
       <c r="I92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K92" s="11">
+      <c r="J92" s="11">
         <v>-3784349</v>
       </c>
+      <c r="K92" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L92" s="11" t="s">
         <v>18</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>23</v>
       </c>
@@ -3597,20 +3597,20 @@
       <c r="J93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K93" s="13" t="s">
-        <v>18</v>
+      <c r="K93" s="13">
+        <v>-409888</v>
       </c>
       <c r="L93" s="13">
-        <v>-409888</v>
+        <v>409888</v>
       </c>
       <c r="M93" s="13">
-        <v>409888</v>
+        <v>0</v>
       </c>
       <c r="N93" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2023052</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>24</v>
       </c>
@@ -3636,57 +3636,57 @@
       <c r="J94" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K94" s="11" t="s">
-        <v>18</v>
+      <c r="K94" s="11">
+        <v>-120847</v>
       </c>
       <c r="L94" s="11">
-        <v>-120847</v>
+        <v>120847</v>
       </c>
       <c r="M94" s="11">
-        <v>120847</v>
+        <v>0</v>
       </c>
       <c r="N94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-781478</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>-392731</v>
+        <v>-574106</v>
       </c>
       <c r="F95" s="15">
-        <v>-574106</v>
+        <v>-874192</v>
       </c>
       <c r="G95" s="15">
-        <v>-874192</v>
+        <v>-531771</v>
       </c>
       <c r="H95" s="15">
-        <v>-531771</v>
+        <v>-789128</v>
       </c>
       <c r="I95" s="15">
-        <v>-789128</v>
+        <v>-553351</v>
       </c>
       <c r="J95" s="15">
-        <v>-553351</v>
+        <v>-1910099</v>
       </c>
       <c r="K95" s="15">
-        <v>-1910099</v>
+        <v>-1087224</v>
       </c>
       <c r="L95" s="15">
-        <v>-1087224</v>
+        <v>-1157125</v>
       </c>
       <c r="M95" s="15">
-        <v>-1157125</v>
+        <v>-4680856</v>
       </c>
       <c r="N95" s="15">
-        <v>-4680856</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1113109</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>47</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -3712,23 +3712,23 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-347437</v>
+        <v>-273638</v>
       </c>
       <c r="F97" s="11">
-        <v>-273638</v>
+        <v>-155539</v>
       </c>
       <c r="G97" s="11">
-        <v>-155539</v>
+        <v>-462906</v>
       </c>
       <c r="H97" s="11">
-        <v>-462906</v>
+        <v>-242923</v>
       </c>
       <c r="I97" s="11">
-        <v>-242923</v>
-      </c>
-      <c r="J97" s="11">
         <v>-691278</v>
       </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K97" s="11" t="s">
         <v>18</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>19</v>
       </c>
@@ -3751,23 +3751,23 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>-204187</v>
+        <v>-56074</v>
       </c>
       <c r="F98" s="13">
-        <v>-56074</v>
+        <v>-259044</v>
       </c>
       <c r="G98" s="13">
-        <v>-259044</v>
+        <v>-69996</v>
       </c>
       <c r="H98" s="13">
-        <v>-69996</v>
+        <v>-249309</v>
       </c>
       <c r="I98" s="13">
-        <v>-249309</v>
-      </c>
-      <c r="J98" s="13">
         <v>-526867</v>
       </c>
+      <c r="J98" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K98" s="13" t="s">
         <v>18</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>22</v>
       </c>
@@ -3804,12 +3804,12 @@
       <c r="I99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K99" s="11">
+      <c r="J99" s="11">
         <v>-2424403</v>
       </c>
+      <c r="K99" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L99" s="11" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>23</v>
       </c>
@@ -3846,20 +3846,20 @@
       <c r="J100" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K100" s="13" t="s">
-        <v>18</v>
+      <c r="K100" s="13">
+        <v>-325452</v>
       </c>
       <c r="L100" s="13">
-        <v>-325452</v>
+        <v>-1329146</v>
       </c>
       <c r="M100" s="13">
-        <v>-1329146</v>
+        <v>1654598</v>
       </c>
       <c r="N100" s="13">
-        <v>1654598</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1326913</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3885,20 +3885,20 @@
       <c r="J101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>18</v>
+      <c r="K101" s="11">
+        <v>-81254</v>
       </c>
       <c r="L101" s="11">
-        <v>-81254</v>
+        <v>81254</v>
       </c>
       <c r="M101" s="11">
-        <v>81254</v>
+        <v>0</v>
       </c>
       <c r="N101" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-567007</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>27</v>
       </c>
@@ -3924,8 +3924,8 @@
       <c r="J102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="13" t="s">
-        <v>18</v>
+      <c r="K102" s="13">
+        <v>0</v>
       </c>
       <c r="L102" s="13">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>28</v>
       </c>
@@ -3963,57 +3963,57 @@
       <c r="J103" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="11" t="s">
-        <v>18</v>
+      <c r="K103" s="11">
+        <v>-334173</v>
       </c>
       <c r="L103" s="11">
-        <v>-334173</v>
+        <v>334173</v>
       </c>
       <c r="M103" s="11">
-        <v>334173</v>
+        <v>0</v>
       </c>
       <c r="N103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1737370</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>-551624</v>
+        <v>-329712</v>
       </c>
       <c r="F104" s="15">
-        <v>-329712</v>
+        <v>-414583</v>
       </c>
       <c r="G104" s="15">
-        <v>-414583</v>
+        <v>-532902</v>
       </c>
       <c r="H104" s="15">
-        <v>-532902</v>
+        <v>-492232</v>
       </c>
       <c r="I104" s="15">
-        <v>-492232</v>
+        <v>-1218145</v>
       </c>
       <c r="J104" s="15">
-        <v>-1218145</v>
+        <v>-2424403</v>
       </c>
       <c r="K104" s="15">
-        <v>-2424403</v>
+        <v>-740879</v>
       </c>
       <c r="L104" s="15">
-        <v>-740879</v>
+        <v>-913719</v>
       </c>
       <c r="M104" s="15">
-        <v>-913719</v>
+        <v>1654598</v>
       </c>
       <c r="N104" s="15">
-        <v>1654598</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3631290</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>49</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>50</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>32</v>
       </c>
@@ -4084,8 +4084,8 @@
       <c r="G107" s="15">
         <v>0</v>
       </c>
-      <c r="H107" s="15">
-        <v>0</v>
+      <c r="H107" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>18</v>
@@ -4106,7 +4106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>33</v>
       </c>
@@ -4145,44 +4145,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>-944355</v>
+        <v>-903818</v>
       </c>
       <c r="F109" s="15">
-        <v>-903818</v>
+        <v>-1288775</v>
       </c>
       <c r="G109" s="15">
-        <v>-1288775</v>
+        <v>-1064673</v>
       </c>
       <c r="H109" s="15">
-        <v>-1064673</v>
+        <v>-1281360</v>
       </c>
       <c r="I109" s="15">
-        <v>-1281360</v>
+        <v>-1771496</v>
       </c>
       <c r="J109" s="15">
-        <v>-1771496</v>
+        <v>-4334502</v>
       </c>
       <c r="K109" s="15">
-        <v>-4334502</v>
+        <v>-1828103</v>
       </c>
       <c r="L109" s="15">
-        <v>-1828103</v>
+        <v>-2070844</v>
       </c>
       <c r="M109" s="15">
-        <v>-2070844</v>
+        <v>-3026258</v>
       </c>
       <c r="N109" s="15">
-        <v>-3026258</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2518181</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4197,7 +4197,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4212,7 +4212,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4227,7 +4227,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>51</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4279,7 +4279,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>16</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>19</v>
       </c>
@@ -4344,37 +4344,37 @@
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
-        <v>386573</v>
+        <v>500792</v>
       </c>
       <c r="F117" s="13">
-        <v>500792</v>
+        <v>145731</v>
       </c>
       <c r="G117" s="13">
-        <v>145731</v>
+        <v>657874</v>
       </c>
       <c r="H117" s="13">
-        <v>657874</v>
+        <v>517854</v>
       </c>
       <c r="I117" s="13">
-        <v>517854</v>
+        <v>1242651</v>
       </c>
       <c r="J117" s="13">
-        <v>1242651</v>
+        <v>-2418379</v>
       </c>
       <c r="K117" s="13">
-        <v>-2418379</v>
+        <v>0</v>
       </c>
       <c r="L117" s="13">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="M117" s="13">
-        <v>-2244349</v>
+        <v>-4680856</v>
       </c>
       <c r="N117" s="13">
-        <v>-4680856</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6925205</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>20</v>
       </c>
@@ -4400,20 +4400,20 @@
       <c r="J118" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K118" s="11" t="s">
-        <v>18</v>
+      <c r="K118" s="11">
+        <v>36762</v>
       </c>
       <c r="L118" s="11">
-        <v>36762</v>
+        <v>137862</v>
       </c>
       <c r="M118" s="11">
-        <v>137862</v>
+        <v>215764</v>
       </c>
       <c r="N118" s="11">
-        <v>215764</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-159861</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>21</v>
       </c>
@@ -4439,20 +4439,20 @@
       <c r="J119" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="13" t="s">
-        <v>18</v>
+      <c r="K119" s="13">
+        <v>505086</v>
       </c>
       <c r="L119" s="13">
-        <v>505086</v>
+        <v>1652938</v>
       </c>
       <c r="M119" s="13">
-        <v>1652938</v>
+        <v>1491323</v>
       </c>
       <c r="N119" s="13">
-        <v>1491323</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1231107</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>22</v>
       </c>
@@ -4475,12 +4475,12 @@
       <c r="I120" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J120" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K120" s="11">
+      <c r="J120" s="11">
         <v>2171488</v>
       </c>
+      <c r="K120" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L120" s="11" t="s">
         <v>18</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>23</v>
       </c>
@@ -4517,20 +4517,20 @@
       <c r="J121" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="13" t="s">
-        <v>18</v>
+      <c r="K121" s="13">
+        <v>205260</v>
       </c>
       <c r="L121" s="13">
-        <v>205260</v>
+        <v>1257702</v>
       </c>
       <c r="M121" s="13">
-        <v>1257702</v>
+        <v>900514</v>
       </c>
       <c r="N121" s="13">
-        <v>900514</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-968421</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>24</v>
       </c>
@@ -4556,57 +4556,57 @@
       <c r="J122" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K122" s="11" t="s">
-        <v>18</v>
+      <c r="K122" s="11">
+        <v>56572</v>
       </c>
       <c r="L122" s="11">
-        <v>56572</v>
+        <v>402069</v>
       </c>
       <c r="M122" s="11">
-        <v>402069</v>
+        <v>439828</v>
       </c>
       <c r="N122" s="11">
-        <v>439828</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-464256</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15">
-        <v>386573</v>
+        <v>500792</v>
       </c>
       <c r="F123" s="15">
-        <v>500792</v>
+        <v>145731</v>
       </c>
       <c r="G123" s="15">
-        <v>145731</v>
+        <v>657874</v>
       </c>
       <c r="H123" s="15">
-        <v>657874</v>
+        <v>517854</v>
       </c>
       <c r="I123" s="15">
-        <v>517854</v>
+        <v>1242651</v>
       </c>
       <c r="J123" s="15">
-        <v>1242651</v>
+        <v>-246891</v>
       </c>
       <c r="K123" s="15">
-        <v>-246891</v>
+        <v>803680</v>
       </c>
       <c r="L123" s="15">
-        <v>803680</v>
+        <v>1206222</v>
       </c>
       <c r="M123" s="15">
-        <v>1206222</v>
+        <v>-1633427</v>
       </c>
       <c r="N123" s="15">
-        <v>-1633427</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4101560</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>54</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4632,23 +4632,23 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>534403</v>
+        <v>436142</v>
       </c>
       <c r="F125" s="11">
-        <v>436142</v>
+        <v>694942</v>
       </c>
       <c r="G125" s="11">
-        <v>694942</v>
+        <v>572676</v>
       </c>
       <c r="H125" s="11">
-        <v>572676</v>
+        <v>320739</v>
       </c>
       <c r="I125" s="11">
-        <v>320739</v>
-      </c>
-      <c r="J125" s="11">
         <v>909297</v>
       </c>
+      <c r="J125" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K125" s="11" t="s">
         <v>18</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>19</v>
       </c>
@@ -4671,23 +4671,23 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
-        <v>603265</v>
+        <v>313178</v>
       </c>
       <c r="F126" s="13">
-        <v>313178</v>
+        <v>312470</v>
       </c>
       <c r="G126" s="13">
-        <v>312470</v>
+        <v>86596</v>
       </c>
       <c r="H126" s="13">
-        <v>86596</v>
+        <v>397616</v>
       </c>
       <c r="I126" s="13">
-        <v>397616</v>
-      </c>
-      <c r="J126" s="13">
         <v>607618</v>
       </c>
+      <c r="J126" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K126" s="13" t="s">
         <v>18</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>22</v>
       </c>
@@ -4724,12 +4724,12 @@
       <c r="I127" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J127" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" s="11">
+      <c r="J127" s="11">
         <v>4443877</v>
       </c>
+      <c r="K127" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L127" s="11" t="s">
         <v>18</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>23</v>
       </c>
@@ -4766,20 +4766,20 @@
       <c r="J128" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K128" s="13" t="s">
-        <v>18</v>
+      <c r="K128" s="13">
+        <v>186844</v>
       </c>
       <c r="L128" s="13">
-        <v>186844</v>
+        <v>-1114685</v>
       </c>
       <c r="M128" s="13">
-        <v>-1114685</v>
+        <v>2683661</v>
       </c>
       <c r="N128" s="13">
-        <v>2683661</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>418946</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>24</v>
       </c>
@@ -4805,20 +4805,20 @@
       <c r="J129" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K129" s="11" t="s">
-        <v>18</v>
+      <c r="K129" s="11">
+        <v>52889</v>
       </c>
       <c r="L129" s="11">
-        <v>52889</v>
+        <v>172400</v>
       </c>
       <c r="M129" s="11">
-        <v>172400</v>
+        <v>630655</v>
       </c>
       <c r="N129" s="11">
-        <v>630655</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>164187</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>27</v>
       </c>
@@ -4844,8 +4844,8 @@
       <c r="J130" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K130" s="13" t="s">
-        <v>18</v>
+      <c r="K130" s="13">
+        <v>0</v>
       </c>
       <c r="L130" s="13">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>28</v>
       </c>
@@ -4883,57 +4883,57 @@
       <c r="J131" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K131" s="11" t="s">
-        <v>18</v>
+      <c r="K131" s="11">
+        <v>673137</v>
       </c>
       <c r="L131" s="11">
-        <v>673137</v>
+        <v>1904689</v>
       </c>
       <c r="M131" s="11">
-        <v>1904689</v>
+        <v>1357937</v>
       </c>
       <c r="N131" s="11">
-        <v>1357937</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1074322</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15">
-        <v>1137668</v>
+        <v>749320</v>
       </c>
       <c r="F132" s="15">
-        <v>749320</v>
+        <v>1007412</v>
       </c>
       <c r="G132" s="15">
-        <v>1007412</v>
+        <v>659272</v>
       </c>
       <c r="H132" s="15">
-        <v>659272</v>
+        <v>718355</v>
       </c>
       <c r="I132" s="15">
-        <v>718355</v>
+        <v>1516915</v>
       </c>
       <c r="J132" s="15">
-        <v>1516915</v>
+        <v>4443877</v>
       </c>
       <c r="K132" s="15">
-        <v>4443877</v>
+        <v>912870</v>
       </c>
       <c r="L132" s="15">
-        <v>912870</v>
+        <v>962404</v>
       </c>
       <c r="M132" s="15">
-        <v>962404</v>
+        <v>4672253</v>
       </c>
       <c r="N132" s="15">
-        <v>4672253</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-491189</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="16" t="s">
         <v>56</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="18" t="s">
         <v>57</v>
       </c>
@@ -4987,41 +4987,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>1524241</v>
+        <v>1250112</v>
       </c>
       <c r="F135" s="15">
-        <v>1250112</v>
+        <v>1153143</v>
       </c>
       <c r="G135" s="15">
-        <v>1153143</v>
+        <v>1317146</v>
       </c>
       <c r="H135" s="15">
-        <v>1317146</v>
+        <v>1236209</v>
       </c>
       <c r="I135" s="15">
-        <v>1236209</v>
+        <v>2759566</v>
       </c>
       <c r="J135" s="15">
-        <v>2759566</v>
+        <v>4196986</v>
       </c>
       <c r="K135" s="15">
-        <v>4196986</v>
+        <v>1716550</v>
       </c>
       <c r="L135" s="15">
-        <v>1716550</v>
+        <v>2168626</v>
       </c>
       <c r="M135" s="15">
-        <v>2168626</v>
+        <v>3038826</v>
       </c>
       <c r="N135" s="15">
-        <v>3038826</v>
+        <v>3610371</v>
       </c>
     </row>
   </sheetData>
